--- a/biology/Botanique/Tillandsia_ortgiesiana/Tillandsia_ortgiesiana.xlsx
+++ b/biology/Botanique/Tillandsia_ortgiesiana/Tillandsia_ortgiesiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia ortgiesiana E.Morren ex Mez est une plante de la famille des Bromeliaceae.
 L'épithète ortgiesiana est une dédicace au botaniste K.E. Ortgies.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia ortgiesiana E.Morren ex Mez in C.DC., Monogr. Phan. 9: 678, n° 18 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis dense fasciculatis, crasse subulatis, perdense albido-lepidotis; inflorescentia digitatim e spicis 2-3 dense flabellatis, utraque facie convexiusculis composita folia paullo superante ; bracteolis florigeris dense imbricatis, rigidis, dorso superioribus saltem glabris laevissimis, apice acutiusculis, sepala exacte aequantibus; floribus erectis ; sepalis antico libero posticis ultra medium connatis, acutis ; petalis tubulose erectis quam stamina praeclare brevioribus ; stylo perlongo. »
-Type : leg. Roezl. ; « Mexico, loco ignoto » ; Herb. Leod[1].
+Type : leg. Roezl. ; « Mexico, loco ignoto » ; Herb. Leod.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,11 +620,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1], saxicole[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte, saxicole.
 Habitat : ?
-Altitude : basse altitude[2].</t>
+Altitude : basse altitude.</t>
         </is>
       </c>
     </row>
@@ -634,10 +654,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Mexique[1],[2]</t>
+ Mexique,</t>
         </is>
       </c>
     </row>
@@ -665,9 +687,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia ortgiesiana est de culture aisée[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia ortgiesiana est de culture aisée.
 </t>
         </is>
       </c>
